--- a/resources/buildup.xlsx
+++ b/resources/buildup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Lead Glass" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <sheet name="Concrete" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Concrete Barite" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Niet gebruiken loodglas" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Water" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -119,7 +120,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,6 +149,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -156,7 +161,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -184,7 +189,7 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -3056,7 +3061,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -5400,7 +5405,7 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -5501,6 +5506,727 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>8.29</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>8.96</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>268</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>917</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>805</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1650</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2120</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1890</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1310</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>656</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3160</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4260</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2580</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1180</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>779</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2140</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>5560</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>7780</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7050</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>4640</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1930</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>972</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3270</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>13100</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>12100</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>7890</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>2950</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>809</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>277</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4820</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>20300</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>19600</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2800</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>4280</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1080</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>683</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5508,7 +6234,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -7852,7 +8578,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -10196,7 +10922,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -12540,7 +13266,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -14884,7 +15610,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -17228,7 +17954,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -19572,7 +20298,7 @@
   </sheetPr>
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -22444,7 +23170,7 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
